--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt16</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt16</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H2">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I2">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J2">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N2">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O2">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P2">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q2">
-        <v>4.332441925298667</v>
+        <v>1.366777126089778</v>
       </c>
       <c r="R2">
-        <v>38.991977327688</v>
+        <v>12.300994134808</v>
       </c>
       <c r="S2">
-        <v>0.1284946677426918</v>
+        <v>0.08652376567802297</v>
       </c>
       <c r="T2">
-        <v>0.1284946677426918</v>
+        <v>0.08652376567802297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H3">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I3">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J3">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q3">
-        <v>1.594839631992445</v>
+        <v>0.6631223163902223</v>
       </c>
       <c r="R3">
-        <v>14.353556687932</v>
+        <v>5.968100847512001</v>
       </c>
       <c r="S3">
-        <v>0.04730089684967188</v>
+        <v>0.04197892898849013</v>
       </c>
       <c r="T3">
-        <v>0.04730089684967188</v>
+        <v>0.04197892898849014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H4">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I4">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J4">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N4">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q4">
-        <v>1.701171573503111</v>
+        <v>0.5503235236844445</v>
       </c>
       <c r="R4">
-        <v>15.310544161528</v>
+        <v>4.952911713160001</v>
       </c>
       <c r="S4">
-        <v>0.05045456578059621</v>
+        <v>0.03483820639185111</v>
       </c>
       <c r="T4">
-        <v>0.05045456578059622</v>
+        <v>0.03483820639185112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H5">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I5">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J5">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N5">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O5">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P5">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q5">
-        <v>2.485358948037778</v>
+        <v>0.3678353089377778</v>
       </c>
       <c r="R5">
-        <v>22.36823053234</v>
+        <v>3.31051778044</v>
       </c>
       <c r="S5">
-        <v>0.07371255697268805</v>
+        <v>0.02328579800694216</v>
       </c>
       <c r="T5">
-        <v>0.07371255697268805</v>
+        <v>0.02328579800694216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H6">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I6">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J6">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N6">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O6">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P6">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q6">
-        <v>0.652613710227111</v>
+        <v>0.346780500064</v>
       </c>
       <c r="R6">
-        <v>5.873523392044</v>
+        <v>3.121024500576</v>
       </c>
       <c r="S6">
-        <v>0.01935568515535891</v>
+        <v>0.02195292425992377</v>
       </c>
       <c r="T6">
-        <v>0.01935568515535891</v>
+        <v>0.02195292425992377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3204226666666667</v>
+        <v>0.1332293333333333</v>
       </c>
       <c r="H7">
-        <v>0.961268</v>
+        <v>0.399688</v>
       </c>
       <c r="I7">
-        <v>0.3914050087502066</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="J7">
-        <v>0.3914050087502067</v>
+        <v>0.2494559176252732</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N7">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q7">
-        <v>2.430537940805333</v>
+        <v>0.6457044906773334</v>
       </c>
       <c r="R7">
-        <v>21.874841467248</v>
+        <v>5.811340416096001</v>
       </c>
       <c r="S7">
-        <v>0.07208663624919975</v>
+        <v>0.04087629430004301</v>
       </c>
       <c r="T7">
-        <v>0.07208663624919977</v>
+        <v>0.04087629430004303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.728375</v>
       </c>
       <c r="I8">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J8">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N8">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O8">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P8">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q8">
-        <v>3.282791466416667</v>
+        <v>2.490758514680556</v>
       </c>
       <c r="R8">
-        <v>29.54512319775</v>
+        <v>22.416826632125</v>
       </c>
       <c r="S8">
-        <v>0.09736338213389309</v>
+        <v>0.1576773579034897</v>
       </c>
       <c r="T8">
-        <v>0.09736338213389309</v>
+        <v>0.1576773579034897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.728375</v>
       </c>
       <c r="I9">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J9">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.931899</v>
       </c>
       <c r="O9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q9">
         <v>1.208446881569444</v>
@@ -1013,10 +1013,10 @@
         <v>10.876021934125</v>
       </c>
       <c r="S9">
-        <v>0.03584098372449697</v>
+        <v>0.07650067653267423</v>
       </c>
       <c r="T9">
-        <v>0.03584098372449697</v>
+        <v>0.07650067653267423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>0.728375</v>
       </c>
       <c r="I10">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J10">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N10">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q10">
-        <v>1.289017053361111</v>
+        <v>1.002886993263889</v>
       </c>
       <c r="R10">
-        <v>11.60115348025</v>
+        <v>9.025982939375</v>
       </c>
       <c r="S10">
-        <v>0.03823059162527179</v>
+        <v>0.06348771687082062</v>
       </c>
       <c r="T10">
-        <v>0.03823059162527179</v>
+        <v>0.06348771687082064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.728375</v>
       </c>
       <c r="I11">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J11">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N11">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O11">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P11">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q11">
-        <v>1.883213967152777</v>
+        <v>0.6703279636805555</v>
       </c>
       <c r="R11">
-        <v>16.948925704375</v>
+        <v>6.032951673125</v>
       </c>
       <c r="S11">
-        <v>0.05585370956380703</v>
+        <v>0.04243508217236067</v>
       </c>
       <c r="T11">
-        <v>0.05585370956380704</v>
+        <v>0.04243508217236067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.728375</v>
       </c>
       <c r="I12">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J12">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N12">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O12">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P12">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q12">
-        <v>0.494500504736111</v>
+        <v>0.6319585445</v>
       </c>
       <c r="R12">
-        <v>4.450504542625</v>
+        <v>5.6876269005</v>
       </c>
       <c r="S12">
-        <v>0.0146662503849442</v>
+        <v>0.04000610778362616</v>
       </c>
       <c r="T12">
-        <v>0.01466625038494421</v>
+        <v>0.04000610778362616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.728375</v>
       </c>
       <c r="I13">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="J13">
-        <v>0.2965766292526452</v>
+        <v>0.4545982216136294</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N13">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q13">
-        <v>1.841674821833333</v>
+        <v>1.176705351166667</v>
       </c>
       <c r="R13">
-        <v>16.5750733965</v>
+        <v>10.5903481605</v>
       </c>
       <c r="S13">
-        <v>0.05462171182023209</v>
+        <v>0.07449128035065808</v>
       </c>
       <c r="T13">
-        <v>0.0546217118202321</v>
+        <v>0.07449128035065811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H14">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I14">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J14">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N14">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O14">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P14">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q14">
-        <v>1.714434040548667</v>
+        <v>0.7824512483536666</v>
       </c>
       <c r="R14">
-        <v>15.429906364938</v>
+        <v>7.042061235183</v>
       </c>
       <c r="S14">
-        <v>0.05084791353363034</v>
+        <v>0.04953304176278864</v>
       </c>
       <c r="T14">
-        <v>0.05084791353363034</v>
+        <v>0.04953304176278864</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H15">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I15">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J15">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.931899</v>
       </c>
       <c r="O15">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P15">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q15">
-        <v>0.6311099840341112</v>
+        <v>0.3796236228763333</v>
       </c>
       <c r="R15">
-        <v>5.679989856307</v>
+        <v>3.416612605887</v>
       </c>
       <c r="S15">
-        <v>0.01871791223190331</v>
+        <v>0.02403205670083513</v>
       </c>
       <c r="T15">
-        <v>0.01871791223190332</v>
+        <v>0.02403205670083513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H16">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I16">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J16">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N16">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O16">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P16">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q16">
-        <v>0.6731876629197777</v>
+        <v>0.3150486790316666</v>
       </c>
       <c r="R16">
-        <v>6.058688966278</v>
+        <v>2.835438111285</v>
       </c>
       <c r="S16">
-        <v>0.01996588218995986</v>
+        <v>0.01994414272917533</v>
       </c>
       <c r="T16">
-        <v>0.01996588218995986</v>
+        <v>0.01994414272917533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H17">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I17">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J17">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N17">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O17">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P17">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q17">
-        <v>0.9835063128294443</v>
+        <v>0.2105780022016666</v>
       </c>
       <c r="R17">
-        <v>8.851556815464999</v>
+        <v>1.895202019815</v>
       </c>
       <c r="S17">
-        <v>0.02916953511873039</v>
+        <v>0.01333063114069588</v>
       </c>
       <c r="T17">
-        <v>0.02916953511873039</v>
+        <v>0.01333063114069588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H18">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I18">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J18">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N18">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O18">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P18">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q18">
-        <v>0.2582523157687777</v>
+        <v>0.198524565564</v>
       </c>
       <c r="R18">
-        <v>2.324270841919</v>
+        <v>1.786721090076</v>
       </c>
       <c r="S18">
-        <v>0.007659432274144611</v>
+        <v>0.01256758886603034</v>
       </c>
       <c r="T18">
-        <v>0.007659432274144613</v>
+        <v>0.01256758886603034</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1267976666666667</v>
+        <v>0.07627099999999999</v>
       </c>
       <c r="H19">
-        <v>0.380393</v>
+        <v>0.228813</v>
       </c>
       <c r="I19">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="J19">
-        <v>0.1548868010726638</v>
+        <v>0.1428082826594534</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N19">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O19">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P19">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q19">
-        <v>0.9618125423053332</v>
+        <v>0.3696522828439999</v>
       </c>
       <c r="R19">
-        <v>8.656312880747999</v>
+        <v>3.326870545596</v>
       </c>
       <c r="S19">
-        <v>0.02852612572429524</v>
+        <v>0.02340082145992809</v>
       </c>
       <c r="T19">
-        <v>0.02852612572429525</v>
+        <v>0.0234008214599281</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H20">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I20">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J20">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N20">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O20">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P20">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q20">
-        <v>1.739281171977333</v>
+        <v>0.8390457956925556</v>
       </c>
       <c r="R20">
-        <v>15.653530547796</v>
+        <v>7.551412161233</v>
       </c>
       <c r="S20">
-        <v>0.051584847565831</v>
+        <v>0.0531157570856687</v>
       </c>
       <c r="T20">
-        <v>0.051584847565831</v>
+        <v>0.0531157570856687</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H21">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I21">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J21">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.931899</v>
       </c>
       <c r="O21">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P21">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q21">
-        <v>0.6402566017215555</v>
+        <v>0.4070817260374445</v>
       </c>
       <c r="R21">
-        <v>5.762309415494</v>
+        <v>3.663735534337</v>
       </c>
       <c r="S21">
-        <v>0.01898918917478734</v>
+        <v>0.02577029071026126</v>
       </c>
       <c r="T21">
-        <v>0.01898918917478734</v>
+        <v>0.02577029071026126</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H22">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I22">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J22">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N22">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O22">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P22">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q22">
-        <v>0.6829441084528888</v>
+        <v>0.3378360890038888</v>
       </c>
       <c r="R22">
-        <v>6.146496976076</v>
+        <v>3.040524801035</v>
       </c>
       <c r="S22">
-        <v>0.02025524584416288</v>
+        <v>0.02138669871230501</v>
       </c>
       <c r="T22">
-        <v>0.02025524584416288</v>
+        <v>0.02138669871230501</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H23">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I23">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J23">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N23">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O23">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P23">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q23">
-        <v>0.997760177392222</v>
+        <v>0.2258090683405555</v>
       </c>
       <c r="R23">
-        <v>8.979841596529999</v>
+        <v>2.032281615065</v>
       </c>
       <c r="S23">
-        <v>0.02959228644987887</v>
+        <v>0.01429483311076977</v>
       </c>
       <c r="T23">
-        <v>0.02959228644987887</v>
+        <v>0.01429483311076977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H24">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I24">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J24">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N24">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O24">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P24">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q24">
-        <v>0.2619951423108888</v>
+        <v>0.212883808964</v>
       </c>
       <c r="R24">
-        <v>2.357956280798</v>
+        <v>1.915954280676</v>
       </c>
       <c r="S24">
-        <v>0.007770439706267072</v>
+        <v>0.01347660013607532</v>
       </c>
       <c r="T24">
-        <v>0.007770439706267073</v>
+        <v>0.01347660013607533</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.1286353333333333</v>
+        <v>0.08178766666666666</v>
       </c>
       <c r="H25">
-        <v>0.385906</v>
+        <v>0.245363</v>
       </c>
       <c r="I25">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="J25">
-        <v>0.1571315609244844</v>
+        <v>0.153137578101644</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N25">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O25">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P25">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q25">
-        <v>0.9757520010906665</v>
+        <v>0.3963891609106666</v>
       </c>
       <c r="R25">
-        <v>8.781768009815998</v>
+        <v>3.567502448196</v>
       </c>
       <c r="S25">
-        <v>0.02893955218355721</v>
+        <v>0.02509339834656395</v>
       </c>
       <c r="T25">
-        <v>0.02893955218355722</v>
+        <v>0.02509339834656396</v>
       </c>
     </row>
   </sheetData>
